--- a/server/LISTAS/mi/MINI RODILLO ANTIGOTA DISMAY.xlsx
+++ b/server/LISTAS/mi/MINI RODILLO ANTIGOTA DISMAY.xlsx
@@ -715,7 +715,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45289</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="2">

--- a/server/LISTAS/mi/MINI RODILLO ANTIGOTA DISMAY.xlsx
+++ b/server/LISTAS/mi/MINI RODILLO ANTIGOTA DISMAY.xlsx
@@ -715,7 +715,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="2">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D33" s="12" t="n">
-        <v>161.5</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" s="1">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D34" s="12" t="n">
-        <v>190.8</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" s="1">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D35" s="12" t="n">
-        <v>211</v>
+        <v>352.2</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="1" s="1">

--- a/server/LISTAS/mi/MINI RODILLO ANTIGOTA DISMAY.xlsx
+++ b/server/LISTAS/mi/MINI RODILLO ANTIGOTA DISMAY.xlsx
@@ -715,7 +715,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="2">

--- a/server/LISTAS/mi/MINI RODILLO ANTIGOTA DISMAY.xlsx
+++ b/server/LISTAS/mi/MINI RODILLO ANTIGOTA DISMAY.xlsx
@@ -715,7 +715,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
     </row>
     <row r="2">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D33" s="12" t="n">
-        <v>289</v>
+        <v>161.5</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" s="1">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D34" s="12" t="n">
-        <v>330</v>
+        <v>190.8</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" s="1">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D35" s="12" t="n">
-        <v>352.2</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="1" s="1">

--- a/server/LISTAS/mi/MINI RODILLO ANTIGOTA DISMAY.xlsx
+++ b/server/LISTAS/mi/MINI RODILLO ANTIGOTA DISMAY.xlsx
@@ -715,7 +715,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="2">

--- a/server/LISTAS/mi/MINI RODILLO ANTIGOTA DISMAY.xlsx
+++ b/server/LISTAS/mi/MINI RODILLO ANTIGOTA DISMAY.xlsx
@@ -715,7 +715,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="2">

--- a/server/LISTAS/mi/MINI RODILLO ANTIGOTA DISMAY.xlsx
+++ b/server/LISTAS/mi/MINI RODILLO ANTIGOTA DISMAY.xlsx
@@ -715,7 +715,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="2">

--- a/server/LISTAS/mi/MINI RODILLO ANTIGOTA DISMAY.xlsx
+++ b/server/LISTAS/mi/MINI RODILLO ANTIGOTA DISMAY.xlsx
@@ -715,7 +715,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="2">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D33" s="12" t="n">
-        <v>161.5</v>
+        <v>457</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" s="1">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D34" s="12" t="n">
-        <v>190.8</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" s="1">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D35" s="12" t="n">
-        <v>211</v>
+        <v>562</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="1" s="1">
